--- a/spiel_beyer/Arbeitsprotokoll_1.xlsx
+++ b/spiel_beyer/Arbeitsprotokoll_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bib\ALLE_FAECHER\4_Projekt_Grundschule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="11_D43C9AB916860B61BDBF3E8F25C91521FB3AC6EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E13D03FD-730B-43F7-B008-0091C8A1D578}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_D43C9AB916860B61BDBF3E8F25C91521FB3AC6EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F29E1056-0CB1-48C3-9245-6EA12349BB6D}"/>
   <bookViews>
     <workbookView xWindow="552" yWindow="5136" windowWidth="14748" windowHeight="3828" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Beyer</t>
   </si>
@@ -603,7 +603,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9" thickBottom="1"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="D2" s="15">
         <f>SUM(C3:C1000)</f>
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1069,9 +1069,15 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.899999999999999" thickBot="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="16"/>
+      <c r="A42" s="14">
+        <v>44444</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="16.899999999999999" thickBot="1">
       <c r="A43" s="10"/>
@@ -4223,12 +4229,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001A55A334702BE3409F4208CCEEFF2941" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="90aaf9d578a8435f5b042189ba6580fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bea1b960-a034-41ee-b8e1-9fd2d761e0fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bce0c6e8e74cd4c9eed1e9e9f7803d50" ns2:_="">
     <xsd:import namespace="bea1b960-a034-41ee-b8e1-9fd2d761e0fe"/>
@@ -4360,14 +4360,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89E59B6D-FF76-42AD-B035-7420E6EB8336}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E092A68-BD13-4A90-9E99-DEC4433F5B8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A4B75E1-FC09-420F-840F-76867557B4AE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A4B75E1-FC09-420F-840F-76867557B4AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E092A68-BD13-4A90-9E99-DEC4433F5B8D}"/>
 </file>